--- a/MavenCRMProject/testdata/zohocrmexcelsheet.xlsx
+++ b/MavenCRMProject/testdata/zohocrmexcelsheet.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="createcampaign" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>userid</t>
   </si>
@@ -28,6 +28,54 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>campaignname</t>
+  </si>
+  <si>
+    <t>start date</t>
+  </si>
+  <si>
+    <t>expected revenue</t>
+  </si>
+  <si>
+    <t>actual cost</t>
+  </si>
+  <si>
+    <t>num sent</t>
+  </si>
+  <si>
+    <t>end date</t>
+  </si>
+  <si>
+    <t>budgeted cost</t>
+  </si>
+  <si>
+    <t>samsung mobile</t>
+  </si>
+  <si>
+    <t>03/09/2021</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>03/20/2021</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>expected response</t>
   </si>
 </sst>
 </file>
@@ -375,7 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -410,12 +458,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/MavenCRMProject/testdata/zohocrmexcelsheet.xlsx
+++ b/MavenCRMProject/testdata/zohocrmexcelsheet.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="createcampaign" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="createlead" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>userid</t>
   </si>
@@ -76,6 +76,96 @@
   </si>
   <si>
     <t>expected response</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">website </t>
+  </si>
+  <si>
+    <t>no of employees</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>shraeyak</t>
+  </si>
+  <si>
+    <t>basu</t>
+  </si>
+  <si>
+    <t>qa engineer</t>
+  </si>
+  <si>
+    <t>1234561234</t>
+  </si>
+  <si>
+    <t>03312345123</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>cdef</t>
+  </si>
+  <si>
+    <t>abc.com</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>mb sarani</t>
+  </si>
+  <si>
+    <t>west bengal</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>kolkata</t>
+  </si>
+  <si>
+    <t>700040</t>
   </si>
 </sst>
 </file>
@@ -460,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -535,12 +625,123 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MavenCRMProject/testdata/zohocrmexcelsheet.xlsx
+++ b/MavenCRMProject/testdata/zohocrmexcelsheet.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="createcampaign" sheetId="2" r:id="rId2"/>
     <sheet name="createlead" sheetId="3" r:id="rId3"/>
+    <sheet name="createaccount" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>userid</t>
   </si>
@@ -166,6 +167,63 @@
   </si>
   <si>
     <t>700040</t>
+  </si>
+  <si>
+    <t>account name</t>
+  </si>
+  <si>
+    <t>account site</t>
+  </si>
+  <si>
+    <t>account number</t>
+  </si>
+  <si>
+    <t>annual revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone </t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>ticker symbol</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>sic code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">billing street </t>
+  </si>
+  <si>
+    <t>billing city</t>
+  </si>
+  <si>
+    <t>billing state</t>
+  </si>
+  <si>
+    <t>billing country</t>
+  </si>
+  <si>
+    <t>billing code</t>
+  </si>
+  <si>
+    <t>bose enterprize</t>
+  </si>
+  <si>
+    <t>789745621</t>
+  </si>
+  <si>
+    <t>30000000</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>12345</t>
   </si>
 </sst>
 </file>
@@ -627,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -744,4 +802,123 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>